--- a/tests/tests_unit/rules/test_importers/excel_importer_data/inconsistent_container_dms_rules.xlsx
+++ b/tests/tests_unit/rules/test_importers/excel_importer_data/inconsistent_container_dms_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\tests\tests_unit\rules\test_importers\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\tests\tests_unit\rules\test_importers\excel_importer_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747A895-0B2C-4E45-83E2-3569C0FE33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5EE25E-9BF7-4605-8677-230515C00A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Definition of properties per class</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Nullable</t>
   </si>
   <si>
-    <t>IsList</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -78,13 +69,7 @@
     <t>Container</t>
   </si>
   <si>
-    <t>ContainerProperty</t>
-  </si>
-  <si>
     <t>View</t>
-  </si>
-  <si>
-    <t>ViewProperty</t>
   </si>
   <si>
     <t>Index</t>
@@ -161,6 +146,21 @@
   <si>
     <t>Flowable</t>
   </si>
+  <si>
+    <t>Property (linage)</t>
+  </si>
+  <si>
+    <t>Class (linage)</t>
+  </si>
+  <si>
+    <t>Is List</t>
+  </si>
+  <si>
+    <t>Container Property</t>
+  </si>
+  <si>
+    <t>View Property</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +249,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -320,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -350,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -620,18 +610,18 @@
     </row>
     <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>26</v>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>34</v>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -657,10 +647,10 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>35</v>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -686,9 +676,9 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -713,10 +703,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>33</v>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -744,8 +734,8 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>32</v>
+      <c r="B7" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -771,10 +761,10 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>31</v>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -800,9 +790,9 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>45351.489040733439</v>
       </c>
       <c r="C9" s="5"/>
@@ -831,7 +821,7 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>45351.489040733439</v>
       </c>
       <c r="C10" s="5"/>
@@ -8460,7 +8450,7 @@
   <dimension ref="A1:X993"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8475,12 +8465,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>23</v>
+      <c r="A1" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -8503,17 +8493,17 @@
       <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -8521,33 +8511,33 @@
     </row>
     <row r="3" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>36</v>
+      <c r="D4" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>36</v>
+      <c r="D5" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9557,8 +9547,8 @@
   </sheetPr>
   <dimension ref="A1:W1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9587,69 +9577,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -9662,13 +9652,13 @@
     </row>
     <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -9677,19 +9667,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9700,13 +9690,13 @@
     </row>
     <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -9715,16 +9705,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -9733,13 +9723,13 @@
     </row>
     <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -9748,16 +9738,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
@@ -22337,8 +22327,8 @@
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22353,12 +22343,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>23</v>
+      <c r="A1" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -22381,17 +22371,17 @@
       <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -22399,24 +22389,24 @@
     </row>
     <row r="3" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H6" s="10"/>

--- a/tests/tests_unit/rules/test_importers/excel_importer_data/inconsistent_container_dms_rules.xlsx
+++ b/tests/tests_unit/rules/test_importers/excel_importer_data/inconsistent_container_dms_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\tests\tests_unit\rules\test_importers\excel_importer_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5EE25E-9BF7-4605-8677-230515C00A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71B312-6FC8-46D0-B529-1E1FFAD8D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Relation</t>
-  </si>
-  <si>
-    <t>Nullable</t>
   </si>
   <si>
     <t>Default</t>
@@ -153,13 +150,16 @@
     <t>Class (linage)</t>
   </si>
   <si>
-    <t>Is List</t>
-  </si>
-  <si>
     <t>Container Property</t>
   </si>
   <si>
     <t>View Property</t>
+  </si>
+  <si>
+    <t>Min Count</t>
+  </si>
+  <si>
+    <t>Max Count</t>
   </si>
 </sst>
 </file>
@@ -610,10 +610,10 @@
     </row>
     <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -647,10 +647,10 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="5"/>
@@ -703,10 +703,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -790,7 +790,7 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="14">
         <v>45351.489040733439</v>
@@ -8466,7 +8466,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -8494,16 +8494,16 @@
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -8511,33 +8511,33 @@
     </row>
     <row r="3" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9547,8 +9547,8 @@
   </sheetPr>
   <dimension ref="A1:W1006"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9597,10 +9597,10 @@
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -9612,34 +9612,34 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -9652,34 +9652,34 @@
     </row>
     <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
+      <c r="F3">
+        <v>0</v>
       </c>
-      <c r="F3" t="b">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9690,31 +9690,31 @@
     </row>
     <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="M4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -9723,31 +9723,31 @@
     </row>
     <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
@@ -22327,7 +22327,7 @@
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22344,7 +22344,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -22372,16 +22372,16 @@
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -22389,19 +22389,19 @@
     </row>
     <row r="3" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="16"/>
     </row>
